--- a/medicine/Mort/Camarde/Camarde.xlsx
+++ b/medicine/Mort/Camarde/Camarde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Camarde est une figure allégorique et anthropomorphique de la Mort représentée généralement sous les traits d'un squelette ou d'un cadavre décharné. Elle est à distinguer de la figure folklorique singulière de la « Grande Faucheuse » ou « Faucheuse ».
-Son nom est issu de l'adjectif camard, tiré de l'occitan, qui signifie : « qui a le nez plat »[1]. Cela fait allusion à l'absence de nez dans un crâne une fois décomposé.
+Son nom est issu de l'adjectif camard, tiré de l'occitan, qui signifie : « qui a le nez plat ». Cela fait allusion à l'absence de nez dans un crâne une fois décomposé.
 </t>
         </is>
       </c>
@@ -512,21 +524,93 @@
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La Camarde est notamment citée dans les œuvres suivantes :
-Littérature, poésie et théâtre
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Camarde est notamment citée dans les œuvres suivantes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Camarde</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Camarde</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Littérature, poésie et théâtre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 « – Croireriez-vous, mon chérubin, dit la Cibot au malade en le voyant inquiet, que, dans mon agonie, car j'ai vu la camarde de bien près !… ce qui me tourmentait le plus, c'était de vous laisser seuls, livrés à vous-mêmes. »
 — Honoré de Balzac, Le Cousin Pons, chapitre XLI : « Où le nœud se resserre », 1847.
 La Camarde est dépeinte dans les poèmes Danse macabre et Le Squelette laboureur de la section « Tableaux parisiens » des Fleurs du mal (éditions postérieures à 1861) de Charles Baudelaire.
-« La Camarde mise à la raison » dans Les Chansons joyeuses (1874) de Maurice Bouchor[2].
+« La Camarde mise à la raison » dans Les Chansons joyeuses (1874) de Maurice Bouchor.
 Dans La Dame à la faulx (1895) de Saint-Pol-Roux.
-Dans le monologue de fin du dernier acte de Cyrano de Bergerac (1897) d'Edmond Rostand[3].
+Dans le monologue de fin du dernier acte de Cyrano de Bergerac (1897) d'Edmond Rostand.
 Dans Derniers entrechats de la Camarde  (2018) de Guy Poitry, illustré par Albertine Zullo.
-Dans le Courrier du tsar (2020) d'Arnaud Fontaine, la Camarde poursuit un jeune officier russe qui cherche à lui échapper[4].
-Dans le roman Ton absence n’est que ténèbres (2022), Jón Kalman Stefánsson propose en fin d’ouvrage une « compilation de la camarde » qui reprend les différents titres musicaux évoqués tout au long du roman.
-Chansons
-Dans la chanson L'océan (1911) d'Adolphe Bérard : « L'océan n'a plus de garde car dans l'obscurité c'est la folle camarde qui vient de l'emporter ».
+Dans le Courrier du tsar (2020) d'Arnaud Fontaine, la Camarde poursuit un jeune officier russe qui cherche à lui échapper.
+Dans le roman Ton absence n’est que ténèbres (2022), Jón Kalman Stefánsson propose en fin d’ouvrage une « compilation de la camarde » qui reprend les différents titres musicaux évoqués tout au long du roman.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Camarde</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Camarde</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Chansons</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dans la chanson L'océan (1911) d'Adolphe Bérard : « L'océan n'a plus de garde car dans l'obscurité c'est la folle camarde qui vient de l'emporter ».
 Dans la chanson Nuit de garde à l'Yser (1914-1918) d'Ernest Genval, chantée sous le titre La Garde de nuit à l'Yser par Damia (1933).
 Dans la chanson J'ai l'cafard (1927) chantée par Fréhel, paroles de Louis Despax, puis chantée par Damia (1930).
 Dans la chanson Sous la blafarde (1927) chantée par Fréhel.
